--- a/CenarioApenasLifetime.xlsx
+++ b/CenarioApenasLifetime.xlsx
@@ -5,17 +5,24 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/026aa1b822791703/Documentos/2025-1/Mestrado/Desenvolvimento Distribuido de Software/Novo Experimento/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/026aa1b822791703/Documentos/2025-1/Mestrado/Desenvolvimento Distribuido de Software/Novo Experimento/GraficosParaApresentaçãoDDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F80346AE-E4AE-954F-AE35-45B165B03222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{F80346AE-E4AE-954F-AE35-45B165B03222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9D38D2C-F950-8847-8251-97D51054CB14}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1240" windowWidth="27840" windowHeight="16120" xr2:uid="{955F98AE-C1F8-0A40-8D83-80322090FE18}"/>
+    <workbookView xWindow="-4600" yWindow="-20940" windowWidth="38080" windowHeight="20780" activeTab="1" xr2:uid="{955F98AE-C1F8-0A40-8D83-80322090FE18}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Resultados" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$L$86</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="56">
   <si>
     <t>Antecendente</t>
   </si>
@@ -178,12 +185,39 @@
   <si>
     <t>coreTeamFollowsRequester=false</t>
   </si>
+  <si>
+    <t>Variação abaixo de 25%</t>
+  </si>
+  <si>
+    <t>Variação de 75% a 100%</t>
+  </si>
+  <si>
+    <t>Variação entre 25% a 50%</t>
+  </si>
+  <si>
+    <t>Variação entre 50% a 75%</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Quantidade de Regras</t>
+  </si>
+  <si>
+    <t>Variações</t>
+  </si>
+  <si>
+    <t>Apenas Variação</t>
+  </si>
+  <si>
+    <t>Mudança na Regra</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,16 +240,29 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -223,22 +270,1043 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="83">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -249,6 +1317,1529 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alvaro Lopes Rios" refreshedDate="45935.901832523145" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="85" xr:uid="{DAFB40DE-832B-134C-9EC1-80F4514BE4AE}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:L86" sheet="Planilha1"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="Antecendente" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Consequente" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Suporte" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.65"/>
+    </cacheField>
+    <cacheField name="Confianca" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.03" maxValue="0.89"/>
+    </cacheField>
+    <cacheField name="Lift" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.37" maxValue="3.01"/>
+    </cacheField>
+    <cacheField name="Leverage" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-0.09" maxValue="0.09"/>
+    </cacheField>
+    <cacheField name="Conviction" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.36" maxValue="2.15"/>
+    </cacheField>
+    <cacheField name="Daricelio" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.51" maxValue="2.1800000000000002"/>
+    </cacheField>
+    <cacheField name="diff" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.95000000000000018" maxValue="0.30000000000000004"/>
+    </cacheField>
+    <cacheField name="Mudou a dependencia?" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Check 1" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Variação abaixo de 25%"/>
+        <s v="Variação entre 50% a 75%"/>
+        <s v="Variação entre 25% a 50%"/>
+        <s v="Variação de 75% a 100%"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Check 2" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Apenas Variação"/>
+        <s v="Mudança na Regra"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="85">
+  <r>
+    <s v="life_time=very short"/>
+    <s v="status=accepeted"/>
+    <n v="0.6"/>
+    <n v="0.89"/>
+    <n v="1.1299999999999999"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="1.9"/>
+    <n v="1.1100000000000001"/>
+    <n v="-1.9999999999999796E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="life_time=short"/>
+    <s v="status=accepeted"/>
+    <n v="0.1"/>
+    <n v="0.73"/>
+    <n v="0.92"/>
+    <n v="-0.01"/>
+    <n v="0.77"/>
+    <n v="1.04"/>
+    <n v="0.12"/>
+    <s v="Sim"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="life_time=medium"/>
+    <s v="status=accepeted"/>
+    <n v="0.04"/>
+    <n v="0.66"/>
+    <n v="0.83"/>
+    <n v="-0.01"/>
+    <n v="0.61"/>
+    <n v="0.96"/>
+    <n v="0.13"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="life_time=lengthy"/>
+    <s v="status=rejected"/>
+    <n v="0.08"/>
+    <n v="0.56999999999999995"/>
+    <n v="2.74"/>
+    <n v="0.05"/>
+    <n v="1.85"/>
+    <n v="2.14"/>
+    <n v="-0.60000000000000009"/>
+    <s v="Não"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="life_time=lengthy"/>
+    <s v="status=accepeted"/>
+    <n v="0.06"/>
+    <n v="0.43"/>
+    <n v="0.54"/>
+    <n v="-0.05"/>
+    <n v="0.36"/>
+    <n v="0.66"/>
+    <n v="0.12"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="life_time=medium"/>
+    <s v="status=rejected"/>
+    <n v="0.02"/>
+    <n v="0.34"/>
+    <n v="1.64"/>
+    <n v="0.01"/>
+    <n v="1.2"/>
+    <n v="1.1299999999999999"/>
+    <n v="-0.51"/>
+    <s v="Não"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="life_time=short"/>
+    <s v="status=rejected"/>
+    <n v="0.04"/>
+    <n v="0.27"/>
+    <n v="1.3"/>
+    <n v="0.01"/>
+    <n v="1.0900000000000001"/>
+    <n v="0.87"/>
+    <n v="-0.43000000000000005"/>
+    <s v="Sim"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="life_time=very short"/>
+    <s v="status=rejected"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="0.11"/>
+    <n v="0.53"/>
+    <n v="-7.0000000000000007E-2"/>
+    <n v="0.89"/>
+    <n v="0.65"/>
+    <n v="0.12"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="commitsPull_D=1 commit"/>
+    <s v="life_time=very short"/>
+    <n v="0.55000000000000004"/>
+    <n v="0.76"/>
+    <n v="1.1399999999999999"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="1.4"/>
+    <n v="1.1399999999999999"/>
+    <n v="0"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="commitsPull_D=some commits"/>
+    <s v="life_time=very short"/>
+    <n v="0.1"/>
+    <n v="0.5"/>
+    <n v="0.75"/>
+    <n v="-0.03"/>
+    <n v="0.67"/>
+    <n v="0.75"/>
+    <n v="0"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="commitsPull_D=many commits"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.03"/>
+    <n v="0.39"/>
+    <n v="2.84"/>
+    <n v="0.02"/>
+    <n v="1.4"/>
+    <n v="1.92"/>
+    <n v="-0.91999999999999993"/>
+    <s v="Não"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="commitsPull_D=many commits"/>
+    <s v="life_time=very short"/>
+    <n v="0.02"/>
+    <n v="0.25"/>
+    <n v="0.37"/>
+    <n v="-0.03"/>
+    <n v="0.44"/>
+    <n v="0.51"/>
+    <n v="0.14000000000000001"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="commitsPull_D=many commits"/>
+    <s v="life_time=short"/>
+    <n v="0.02"/>
+    <n v="0.21"/>
+    <n v="1.62"/>
+    <n v="0.01"/>
+    <n v="1.1000000000000001"/>
+    <n v="1.1399999999999999"/>
+    <n v="-0.4800000000000002"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="commitsPull_D=some commits"/>
+    <s v="life_time=short"/>
+    <n v="0.04"/>
+    <n v="0.21"/>
+    <n v="1.6"/>
+    <n v="0.02"/>
+    <n v="1.1000000000000001"/>
+    <n v="1.24"/>
+    <n v="-0.3600000000000001"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="commitsPull_D=some commits"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.04"/>
+    <n v="0.18"/>
+    <n v="1.36"/>
+    <n v="0.01"/>
+    <n v="1.06"/>
+    <n v="1.28"/>
+    <n v="-8.0000000000000071E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="commitsPull_D=many commits"/>
+    <s v="life_time=medium"/>
+    <n v="0.01"/>
+    <n v="0.16"/>
+    <n v="2.41"/>
+    <n v="0.01"/>
+    <n v="1.1100000000000001"/>
+    <n v="1.54"/>
+    <n v="-0.87000000000000011"/>
+    <s v="Não"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="commitsPull_D=some commits"/>
+    <s v="life_time=medium"/>
+    <n v="0.02"/>
+    <n v="0.1"/>
+    <n v="1.59"/>
+    <n v="0.01"/>
+    <n v="1.04"/>
+    <n v="1.29"/>
+    <n v="-0.30000000000000004"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="commitsPull_D=1 commit"/>
+    <s v="life_time=short"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="0.1"/>
+    <n v="0.76"/>
+    <n v="-0.02"/>
+    <n v="0.97"/>
+    <n v="0.91"/>
+    <n v="0.15000000000000002"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="commitsPull_D=1 commit"/>
+    <s v="life_time=lengthy"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="0.09"/>
+    <n v="0.69"/>
+    <n v="-0.03"/>
+    <n v="0.95"/>
+    <n v="0.8"/>
+    <n v="0.1100000000000001"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="commitsPull_D=1 commit"/>
+    <s v="life_time=medium"/>
+    <n v="0.03"/>
+    <n v="0.04"/>
+    <n v="0.68"/>
+    <n v="-0.02"/>
+    <n v="0.98"/>
+    <n v="0.84"/>
+    <n v="0.15999999999999992"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="changedFiles_D=1 file"/>
+    <s v="life_time=very short"/>
+    <n v="0.47"/>
+    <n v="0.83"/>
+    <n v="1.25"/>
+    <n v="0.09"/>
+    <n v="1.98"/>
+    <n v="1.21"/>
+    <n v="-4.0000000000000036E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="changedFiles_D=some files"/>
+    <s v="life_time=very short"/>
+    <n v="0.15"/>
+    <n v="0.51"/>
+    <n v="0.77"/>
+    <n v="-0.04"/>
+    <n v="0.68"/>
+    <n v="0.87"/>
+    <n v="9.9999999999999978E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="changedFiles_D=many files"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.05"/>
+    <n v="0.34"/>
+    <n v="2.4900000000000002"/>
+    <n v="0.03"/>
+    <n v="1.3"/>
+    <n v="1.54"/>
+    <n v="-0.95000000000000018"/>
+    <s v="Não"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="changedFiles_D=many files"/>
+    <s v="life_time=very short"/>
+    <n v="0.05"/>
+    <n v="0.34"/>
+    <n v="0.5"/>
+    <n v="-0.05"/>
+    <n v="0.5"/>
+    <n v="0.68"/>
+    <n v="0.18000000000000005"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="changedFiles_D=some files"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.06"/>
+    <n v="0.2"/>
+    <n v="1.46"/>
+    <n v="0.02"/>
+    <n v="1.08"/>
+    <n v="1.19"/>
+    <n v="-0.27"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="changedFiles_D=many files"/>
+    <s v="life_time=short"/>
+    <n v="0.03"/>
+    <n v="0.2"/>
+    <n v="1.5"/>
+    <n v="0.01"/>
+    <n v="1.08"/>
+    <n v="1.17"/>
+    <n v="-0.33000000000000007"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="changedFiles_D=some files"/>
+    <s v="life_time=short"/>
+    <n v="0.05"/>
+    <n v="0.19"/>
+    <n v="1.45"/>
+    <n v="0.02"/>
+    <n v="1.07"/>
+    <n v="1.1000000000000001"/>
+    <n v="-0.34999999999999987"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="changedFiles_D=many files"/>
+    <s v="life_time=medium"/>
+    <n v="0.02"/>
+    <n v="0.13"/>
+    <n v="2.0099999999999998"/>
+    <n v="0.01"/>
+    <n v="1.07"/>
+    <n v="1.36"/>
+    <n v="-0.64999999999999969"/>
+    <s v="Não"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="changedFiles_D=some files"/>
+    <s v="life_time=medium"/>
+    <n v="0.03"/>
+    <n v="0.1"/>
+    <n v="1.51"/>
+    <n v="0.01"/>
+    <n v="1.04"/>
+    <n v="1.1299999999999999"/>
+    <n v="-0.38000000000000012"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="changedFiles_D=1 file"/>
+    <s v="life_time=short"/>
+    <n v="0.05"/>
+    <n v="0.08"/>
+    <n v="0.64"/>
+    <n v="-0.03"/>
+    <n v="0.95"/>
+    <n v="0.87"/>
+    <n v="0.22999999999999998"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="changedFiles_D=1 file"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.03"/>
+    <n v="0.05"/>
+    <n v="0.38"/>
+    <n v="-0.05"/>
+    <n v="0.91"/>
+    <n v="0.67"/>
+    <n v="0.29000000000000004"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="changedFiles_D=1 file"/>
+    <s v="life_time=medium"/>
+    <n v="0.02"/>
+    <n v="0.03"/>
+    <n v="0.48"/>
+    <n v="-0.02"/>
+    <n v="0.97"/>
+    <n v="0.78"/>
+    <n v="0.30000000000000004"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="total_lines_D=1 line"/>
+    <s v="life_time=very short"/>
+    <n v="0.02"/>
+    <n v="0.85"/>
+    <n v="1.27"/>
+    <n v="0"/>
+    <n v="2.15"/>
+    <n v="1.24"/>
+    <n v="-3.0000000000000027E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="total_lines_D=some lines"/>
+    <s v="life_time=very short"/>
+    <n v="0.49"/>
+    <n v="0.82"/>
+    <n v="1.23"/>
+    <n v="0.09"/>
+    <n v="1.84"/>
+    <n v="1.24"/>
+    <n v="1.0000000000000009E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="total_lines_D=many lines"/>
+    <s v="life_time=very short"/>
+    <n v="0.16"/>
+    <n v="0.42"/>
+    <n v="0.63"/>
+    <n v="-0.09"/>
+    <n v="0.56999999999999995"/>
+    <n v="0.72"/>
+    <n v="8.9999999999999969E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="total_lines_D=many lines"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.1"/>
+    <n v="0.27"/>
+    <n v="1.98"/>
+    <n v="0.05"/>
+    <n v="1.18"/>
+    <n v="1.43"/>
+    <n v="-0.55000000000000004"/>
+    <s v="Não"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="total_lines_D=many lines"/>
+    <s v="life_time=short"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="0.2"/>
+    <n v="1.5"/>
+    <n v="0.02"/>
+    <n v="1.08"/>
+    <n v="1.1599999999999999"/>
+    <n v="-0.34000000000000008"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="total_lines_D=many lines"/>
+    <s v="life_time=medium"/>
+    <n v="0.04"/>
+    <n v="0.11"/>
+    <n v="1.77"/>
+    <n v="0.02"/>
+    <n v="1.06"/>
+    <n v="1.31"/>
+    <n v="-0.45999999999999996"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="total_lines_D=some lines"/>
+    <s v="life_time=short"/>
+    <n v="0.05"/>
+    <n v="0.09"/>
+    <n v="0.7"/>
+    <n v="-0.02"/>
+    <n v="0.96"/>
+    <n v="0.86"/>
+    <n v="0.16000000000000003"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="total_lines_D=some lines"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.03"/>
+    <n v="0.05"/>
+    <n v="0.4"/>
+    <n v="-0.05"/>
+    <n v="0.91"/>
+    <n v="0.61"/>
+    <n v="0.20999999999999996"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="total_lines_D=some lines"/>
+    <s v="life_time=medium"/>
+    <n v="0.02"/>
+    <n v="0.03"/>
+    <n v="0.53"/>
+    <n v="-0.02"/>
+    <n v="0.97"/>
+    <n v="0.73"/>
+    <n v="0.19999999999999996"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="first_Pull=False"/>
+    <s v="life_time=very short"/>
+    <n v="0.59"/>
+    <n v="0.73"/>
+    <n v="1.0900000000000001"/>
+    <n v="0.05"/>
+    <n v="1.22"/>
+    <n v="1.07"/>
+    <n v="-2.0000000000000018E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="first_Pull=True"/>
+    <s v="life_time=very short"/>
+    <n v="0.08"/>
+    <n v="0.42"/>
+    <n v="0.63"/>
+    <n v="-0.05"/>
+    <n v="0.56999999999999995"/>
+    <n v="0.76"/>
+    <n v="0.13"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="first_Pull=True"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.06"/>
+    <n v="0.32"/>
+    <n v="2.37"/>
+    <n v="0.04"/>
+    <n v="1.27"/>
+    <n v="1.85"/>
+    <n v="-0.52"/>
+    <s v="Não"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="first_Pull=True"/>
+    <s v="life_time=short"/>
+    <n v="0.03"/>
+    <n v="0.16"/>
+    <n v="1.26"/>
+    <n v="0.01"/>
+    <n v="1.04"/>
+    <n v="0.87"/>
+    <n v="-0.39"/>
+    <s v="Sim"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="first_Pull=False"/>
+    <s v="life_time=short"/>
+    <n v="0.1"/>
+    <n v="0.12"/>
+    <n v="0.94"/>
+    <n v="-0.01"/>
+    <n v="0.99"/>
+    <n v="1.03"/>
+    <n v="9.000000000000008E-2"/>
+    <s v="Sim"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="first_Pull=True"/>
+    <s v="life_time=medium"/>
+    <n v="0.02"/>
+    <n v="0.09"/>
+    <n v="1.43"/>
+    <n v="0.01"/>
+    <n v="1.03"/>
+    <n v="1.05"/>
+    <n v="-0.37999999999999989"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="first_Pull=False"/>
+    <s v="life_time=lengthy"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="0.09"/>
+    <n v="0.67"/>
+    <n v="-0.04"/>
+    <n v="0.95"/>
+    <n v="0.77"/>
+    <n v="9.9999999999999978E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="first_Pull=False"/>
+    <s v="life_time=medium"/>
+    <n v="0.05"/>
+    <n v="0.06"/>
+    <n v="0.9"/>
+    <n v="-0.01"/>
+    <n v="0.99"/>
+    <n v="0.98"/>
+    <n v="7.999999999999996E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="typeDeveloper=external"/>
+    <s v="life_time=very short"/>
+    <n v="0.65"/>
+    <n v="0.69"/>
+    <n v="1.04"/>
+    <n v="0.02"/>
+    <n v="1.08"/>
+    <n v="1.03"/>
+    <n v="-1.0000000000000009E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="typeDeveloper=core"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.02"/>
+    <n v="0.41"/>
+    <n v="3.01"/>
+    <n v="0.02"/>
+    <n v="1.46"/>
+    <n v="2.1800000000000002"/>
+    <n v="-0.82999999999999963"/>
+    <s v="Não"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="typeDeveloper=core"/>
+    <s v="life_time=very short"/>
+    <n v="0.01"/>
+    <n v="0.25"/>
+    <n v="0.38"/>
+    <n v="-0.02"/>
+    <n v="0.44"/>
+    <n v="0.56000000000000005"/>
+    <n v="0.18000000000000005"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="typeDeveloper=core"/>
+    <s v="life_time=short"/>
+    <n v="0.01"/>
+    <n v="0.2"/>
+    <n v="1.56"/>
+    <n v="0"/>
+    <n v="1.0900000000000001"/>
+    <n v="0.97"/>
+    <n v="-0.59000000000000008"/>
+    <s v="Sim"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="typeDeveloper=core"/>
+    <s v="life_time=medium"/>
+    <n v="0.01"/>
+    <n v="0.13"/>
+    <n v="2.06"/>
+    <n v="0"/>
+    <n v="1.08"/>
+    <n v="1.26"/>
+    <n v="-0.8"/>
+    <s v="Não"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="typeDeveloper=external"/>
+    <s v="life_time=short"/>
+    <n v="0.12"/>
+    <n v="0.13"/>
+    <n v="0.97"/>
+    <n v="0"/>
+    <n v="0.99"/>
+    <n v="1"/>
+    <n v="3.0000000000000027E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="typeDeveloper=external"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.11"/>
+    <n v="0.12"/>
+    <n v="0.88"/>
+    <n v="-0.02"/>
+    <n v="0.98"/>
+    <n v="0.93"/>
+    <n v="5.0000000000000044E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="typeDeveloper=external"/>
+    <s v="life_time=medium"/>
+    <n v="0.06"/>
+    <n v="0.06"/>
+    <n v="0.94"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0.98"/>
+    <n v="4.0000000000000036E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="requester_experience_project=many contributions"/>
+    <s v="life_time=very short"/>
+    <n v="0.53"/>
+    <n v="0.74"/>
+    <n v="1.1100000000000001"/>
+    <n v="0.05"/>
+    <n v="1.27"/>
+    <n v="1.08"/>
+    <n v="-3.0000000000000027E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="requester_experience_project=some contributions"/>
+    <s v="life_time=very short"/>
+    <n v="0.09"/>
+    <n v="0.53"/>
+    <n v="0.8"/>
+    <n v="-0.02"/>
+    <n v="0.71"/>
+    <n v="0.86"/>
+    <n v="5.9999999999999942E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="requester_experience_project=no contribution"/>
+    <s v="life_time=very short"/>
+    <n v="0.05"/>
+    <n v="0.44"/>
+    <n v="0.66"/>
+    <n v="-0.03"/>
+    <n v="0.59"/>
+    <n v="0.76"/>
+    <n v="9.9999999999999978E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="requester_experience_project=no contribution"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.04"/>
+    <n v="0.31"/>
+    <n v="2.27"/>
+    <n v="0.02"/>
+    <n v="1.25"/>
+    <n v="1.85"/>
+    <n v="-0.41999999999999993"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="requester_experience_project=some contributions"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.04"/>
+    <n v="0.25"/>
+    <n v="1.83"/>
+    <n v="0.02"/>
+    <n v="1.1499999999999999"/>
+    <n v="1.5"/>
+    <n v="-0.33000000000000007"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="requester_experience_project=no contribution"/>
+    <s v="life_time=short"/>
+    <n v="0.02"/>
+    <n v="0.16"/>
+    <n v="1.23"/>
+    <n v="0"/>
+    <n v="1.04"/>
+    <n v="0.87"/>
+    <n v="-0.36"/>
+    <s v="Sim"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="requester_experience_project=some contributions"/>
+    <s v="life_time=short"/>
+    <n v="0.02"/>
+    <n v="0.14000000000000001"/>
+    <n v="1.07"/>
+    <n v="0"/>
+    <n v="1.01"/>
+    <n v="0.9"/>
+    <n v="-0.17000000000000004"/>
+    <s v="Sim"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="requester_experience_project=many contributions"/>
+    <s v="life_time=short"/>
+    <n v="0.09"/>
+    <n v="0.12"/>
+    <n v="0.94"/>
+    <n v="-0.01"/>
+    <n v="0.99"/>
+    <n v="1.06"/>
+    <n v="0.12000000000000011"/>
+    <s v="Sim"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="requester_experience_project=no contribution"/>
+    <s v="life_time=medium"/>
+    <n v="0.01"/>
+    <n v="0.09"/>
+    <n v="1.37"/>
+    <n v="0"/>
+    <n v="1.03"/>
+    <n v="1.05"/>
+    <n v="-0.32000000000000006"/>
+    <s v="Não"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="requester_experience_project=many contributions"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.06"/>
+    <n v="0.08"/>
+    <n v="0.59"/>
+    <n v="-0.04"/>
+    <n v="0.94"/>
+    <n v="0.7"/>
+    <n v="0.10999999999999999"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="requester_experience_project=some contributions"/>
+    <s v="life_time=medium"/>
+    <n v="0.01"/>
+    <n v="0.08"/>
+    <n v="1.22"/>
+    <n v="0"/>
+    <n v="1.02"/>
+    <n v="1.05"/>
+    <n v="-0.16999999999999993"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="requester_experience_project=many contributions"/>
+    <s v="life_time=medium"/>
+    <n v="0.04"/>
+    <n v="0.06"/>
+    <n v="0.88"/>
+    <n v="-0.01"/>
+    <n v="0.99"/>
+    <n v="0.98"/>
+    <n v="9.9999999999999978E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="followers_boolean=has followers"/>
+    <s v="life_time=very short"/>
+    <n v="0.62"/>
+    <n v="0.68"/>
+    <n v="1.01"/>
+    <s v="0.01"/>
+    <s v="1.02"/>
+    <n v="1"/>
+    <n v="-1.0000000000000009E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="followers_boolean=no followers"/>
+    <s v="life_time=very short"/>
+    <n v="0.05"/>
+    <n v="0.59"/>
+    <n v="0.88"/>
+    <s v="-0.01"/>
+    <s v="0.8"/>
+    <n v="0.96"/>
+    <n v="7.999999999999996E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="followers_boolean=no followers"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.01"/>
+    <n v="0.18"/>
+    <n v="1.29"/>
+    <s v="0.0"/>
+    <s v="1.05"/>
+    <n v="1.25"/>
+    <n v="-4.0000000000000036E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="followers_boolean=no followers"/>
+    <s v="life_time=short"/>
+    <n v="0.01"/>
+    <n v="0.16"/>
+    <n v="1.25"/>
+    <s v="0.0"/>
+    <s v="1.04"/>
+    <n v="1.01"/>
+    <n v="-0.24"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="followers_boolean=has followers"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.12"/>
+    <n v="0.13"/>
+    <n v="0.97"/>
+    <s v="-0.0"/>
+    <s v="1.0"/>
+    <n v="0.98"/>
+    <n v="1.0000000000000009E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="followers_boolean=has followers"/>
+    <s v="life_time=short"/>
+    <n v="0.12"/>
+    <n v="0.13"/>
+    <n v="0.98"/>
+    <s v="-0.0"/>
+    <s v="1.0"/>
+    <n v="1"/>
+    <n v="2.0000000000000018E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="followers_boolean=has followers"/>
+    <s v="life_time=medium"/>
+    <n v="0.06"/>
+    <n v="0.06"/>
+    <n v="0.98"/>
+    <s v="-0.0"/>
+    <s v="1.0"/>
+    <n v="1.01"/>
+    <n v="3.0000000000000027E-2"/>
+    <s v="Sim"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="followers_boolean=no followers"/>
+    <s v="life_time=medium"/>
+    <n v="0.01"/>
+    <n v="0.08"/>
+    <n v="1.17"/>
+    <n v="0"/>
+    <n v="1.01"/>
+    <n v="0.84"/>
+    <n v="-0.32999999999999996"/>
+    <s v="Sim"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="coreTeamFollowsRequester=true"/>
+    <s v="life_time=very short"/>
+    <n v="0.03"/>
+    <n v="0.68"/>
+    <n v="1.02"/>
+    <n v="0"/>
+    <n v="1.03"/>
+    <n v="1.03"/>
+    <n v="1.0000000000000009E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="coreTeamFollowsRequester=false"/>
+    <s v="life_time=very short"/>
+    <n v="0.64"/>
+    <n v="0.67"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="coreTeamFollowsRequester=true"/>
+    <s v="life_time=short"/>
+    <n v="0.01"/>
+    <n v="0.17"/>
+    <n v="1.28"/>
+    <n v="0"/>
+    <n v="1.04"/>
+    <n v="1.1399999999999999"/>
+    <n v="-0.14000000000000012"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="coreTeamFollowsRequester=false"/>
+    <s v="life_time=lengthy"/>
+    <n v="0.13"/>
+    <n v="0.14000000000000001"/>
+    <n v="1.02"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1.03"/>
+    <n v="1.0000000000000009E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="coreTeamFollowsRequester=false"/>
+    <s v="life_time=short"/>
+    <n v="0.12"/>
+    <n v="0.13"/>
+    <n v="0.99"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0.99"/>
+    <n v="0"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="coreTeamFollowsRequester=true"/>
+    <s v="life_time=lengthy"/>
+    <n v="0"/>
+    <n v="0.08"/>
+    <n v="0.59"/>
+    <n v="0"/>
+    <n v="0.94"/>
+    <n v="0.66"/>
+    <n v="7.0000000000000062E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="coreTeamFollowsRequester=true"/>
+    <s v="life_time=medium"/>
+    <n v="0"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="1.1200000000000001"/>
+    <n v="0"/>
+    <n v="1.01"/>
+    <n v="1.1000000000000001"/>
+    <n v="-2.0000000000000018E-2"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="coreTeamFollowsRequester=false"/>
+    <s v="life_time=medium"/>
+    <n v="0.06"/>
+    <n v="0.06"/>
+    <n v="0.99"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0.99"/>
+    <n v="0"/>
+    <s v="Não"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{096FBF48-DA00-364D-8539-DB3B1EA0E26A}" name="Tabela dinâmica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Variações">
+  <location ref="A17:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="11"/>
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Quantidade de Regras" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="18">
+    <format dxfId="36">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="45">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="10" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F39D9A8-8536-5842-9691-753AF58886F8}" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Variações">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Quantidade de Regras" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="18">
+    <format dxfId="82">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="81">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="79">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="78">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="75">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="73">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="71">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="10" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -567,14 +3158,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632A51A5-5BAF-9847-87CB-0AE61E88FC22}">
-  <dimension ref="A1:L85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE269E98-AE4E-AE40-BA8F-7C1D64C3E283}">
+  <dimension ref="A3:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L85"/>
+    <sheetView showGridLines="0" zoomScale="190" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632A51A5-5BAF-9847-87CB-0AE61E88FC22}">
+  <dimension ref="A1:L86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -682,19 +3426,19 @@
         <v>1.04</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">H3-E3</f>
+        <f t="shared" ref="I3:I67" si="0">H3-E3</f>
         <v>0.12</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J66" si="1">IF(AND(H3&gt;1,E3&lt;1),"Sim",IF(AND(H3&lt;1,E3&gt;1),"Sim","Não"))</f>
+        <f t="shared" ref="J3:J67" si="1">IF(AND(H3&gt;1,E3&lt;1),"Sim",IF(AND(H3&lt;1,E3&gt;1),"Sim","Não"))</f>
         <v>Sim</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="2">IF(ABS(I3)&gt;1,"Variação de Acima de 100%",IF(ABS(I3)&gt;0.75,"Variação de 75% a 100%",IF(ABS(I3)&gt;0.5,"Variação entre 50% a 75%",IF(ABS(I3)&gt;0.25,"Variação entre 25% a 50%","Variação abaixo de 25%"))))</f>
+        <f t="shared" ref="K3:K67" si="2">IF(ABS(I3)&gt;1,"Variação de Acima de 100%",IF(ABS(I3)&gt;0.75,"Variação de 75% a 100%",IF(ABS(I3)&gt;0.5,"Variação entre 50% a 75%",IF(ABS(I3)&gt;0.25,"Variação entre 25% a 50%","Variação abaixo de 25%"))))</f>
         <v>Variação abaixo de 25%</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L66" si="3">IF(AND(J3="Sim",ABS(I3)&gt;0.2),"Mudança na Regra", "Apenas Variação")</f>
+        <f t="shared" ref="L3:L67" si="3">IF(AND(J3="Sim",ABS(I3)&gt;0.2),"Mudança na Regra", "Apenas Variação")</f>
         <v>Apenas Variação</v>
       </c>
     </row>
@@ -2840,42 +5584,42 @@
         <v>Mudança na Regra</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="D55" s="1">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>0.01</v>
+      </c>
+      <c r="D55">
         <v>0.13</v>
       </c>
-      <c r="E55" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="E55">
+        <v>2.06</v>
+      </c>
+      <c r="F55">
         <v>0</v>
       </c>
-      <c r="G55" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
+      <c r="G55">
+        <v>1.08</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1.26</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="J55" t="str">
+        <v>-0.8</v>
+      </c>
+      <c r="J55" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
-        <v>Variação abaixo de 25%</v>
+        <v>Variação de 75% a 100%</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="3"/>
@@ -2887,29 +5631,29 @@
         <v>29</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56" s="1">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D56" s="1">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E56" s="1">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F56" s="1">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0.93</v>
+        <v>0.99</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>5.0000000000000044E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="1"/>
@@ -2929,29 +5673,29 @@
         <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C57" s="1">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="D57" s="1">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="E57" s="1">
-        <v>0.94</v>
+        <v>0.88</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="H57" s="1">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>4.0000000000000036E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="1"/>
@@ -2966,34 +5710,34 @@
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58">
-        <v>0.53</v>
-      </c>
-      <c r="D58">
-        <v>0.74</v>
-      </c>
-      <c r="E58">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F58">
-        <v>0.05</v>
-      </c>
-      <c r="G58">
-        <v>1.27</v>
-      </c>
-      <c r="H58">
-        <v>1.08</v>
+    <row r="58" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.98</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>-3.0000000000000027E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="1"/>
@@ -3010,32 +5754,32 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
       </c>
       <c r="C59">
-        <v>0.09</v>
+        <v>0.53</v>
       </c>
       <c r="D59">
-        <v>0.53</v>
+        <v>0.74</v>
       </c>
       <c r="E59">
-        <v>0.8</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F59">
-        <v>-0.02</v>
+        <v>0.05</v>
       </c>
       <c r="G59">
-        <v>0.71</v>
+        <v>1.27</v>
       </c>
       <c r="H59">
-        <v>0.86</v>
+        <v>1.08</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>5.9999999999999942E-2</v>
+        <v>-3.0000000000000027E-2</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="1"/>
@@ -3052,32 +5796,32 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
       </c>
       <c r="C60">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="D60">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
       <c r="E60">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="F60">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="G60">
-        <v>0.59</v>
+        <v>0.71</v>
       </c>
       <c r="H60">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>9.9999999999999978E-2</v>
+        <v>5.9999999999999942E-2</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="1"/>
@@ -3097,29 +5841,29 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C61">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D61">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="E61">
-        <v>2.27</v>
+        <v>0.66</v>
       </c>
       <c r="F61">
-        <v>0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="G61">
-        <v>1.25</v>
+        <v>0.59</v>
       </c>
       <c r="H61">
-        <v>1.85</v>
+        <v>0.76</v>
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
-        <v>-0.41999999999999993</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="1"/>
@@ -3127,7 +5871,7 @@
       </c>
       <c r="K61" t="str">
         <f t="shared" si="2"/>
-        <v>Variação entre 25% a 50%</v>
+        <v>Variação abaixo de 25%</v>
       </c>
       <c r="L61" t="str">
         <f t="shared" si="3"/>
@@ -3136,7 +5880,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
@@ -3145,23 +5889,23 @@
         <v>0.04</v>
       </c>
       <c r="D62">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="E62">
-        <v>1.83</v>
+        <v>2.27</v>
       </c>
       <c r="F62">
         <v>0.02</v>
       </c>
       <c r="G62">
-        <v>1.1499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="H62">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
-        <v>-0.33000000000000007</v>
+        <v>-0.41999999999999993</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="1"/>
@@ -3178,36 +5922,36 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C63">
+        <v>0.04</v>
+      </c>
+      <c r="D63">
+        <v>0.25</v>
+      </c>
+      <c r="E63">
+        <v>1.83</v>
+      </c>
+      <c r="F63">
         <v>0.02</v>
       </c>
-      <c r="D63">
-        <v>0.16</v>
-      </c>
-      <c r="E63">
-        <v>1.23</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
       <c r="G63">
-        <v>1.04</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H63">
-        <v>0.87</v>
+        <v>1.5</v>
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
-        <v>-0.36</v>
-      </c>
-      <c r="J63" s="3" t="str">
+        <v>-0.33000000000000007</v>
+      </c>
+      <c r="J63" t="str">
         <f t="shared" si="1"/>
-        <v>Sim</v>
+        <v>Não</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="2"/>
@@ -3215,12 +5959,12 @@
       </c>
       <c r="L63" t="str">
         <f t="shared" si="3"/>
-        <v>Mudança na Regra</v>
+        <v>Apenas Variação</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -3229,65 +5973,65 @@
         <v>0.02</v>
       </c>
       <c r="D64">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E64">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="H64">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
-        <v>-0.17000000000000004</v>
-      </c>
-      <c r="J64" t="str">
+        <v>-0.36</v>
+      </c>
+      <c r="J64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Sim</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="2"/>
-        <v>Variação abaixo de 25%</v>
+        <v>Variação entre 25% a 50%</v>
       </c>
       <c r="L64" t="str">
         <f t="shared" si="3"/>
-        <v>Apenas Variação</v>
+        <v>Mudança na Regra</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
       </c>
       <c r="C65">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="D65">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E65">
-        <v>0.94</v>
+        <v>1.07</v>
       </c>
       <c r="F65">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="H65">
-        <v>1.06</v>
+        <v>0.9</v>
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
-        <v>0.12000000000000011</v>
+        <v>-0.17000000000000004</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="1"/>
@@ -3304,40 +6048,40 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="D66">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="E66">
-        <v>1.37</v>
+        <v>0.94</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="G66">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="H66">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>-0.32000000000000006</v>
+        <v>0.12000000000000011</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" si="1"/>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" si="2"/>
-        <v>Variação entre 25% a 50%</v>
+        <v>Variação abaixo de 25%</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" si="3"/>
@@ -3346,116 +6090,116 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="D67">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E67">
-        <v>0.59</v>
+        <v>1.37</v>
       </c>
       <c r="F67">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0.94</v>
+        <v>1.03</v>
       </c>
       <c r="H67">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I85" si="4">H67-E67</f>
-        <v>0.10999999999999999</v>
+        <f t="shared" si="0"/>
+        <v>-0.32000000000000006</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67:J85" si="5">IF(AND(H67&gt;1,E67&lt;1),"Sim",IF(AND(H67&lt;1,E67&gt;1),"Sim","Não"))</f>
+        <f t="shared" si="1"/>
         <v>Não</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K85" si="6">IF(ABS(I67)&gt;1,"Variação de Acima de 100%",IF(ABS(I67)&gt;0.75,"Variação de 75% a 100%",IF(ABS(I67)&gt;0.5,"Variação entre 50% a 75%",IF(ABS(I67)&gt;0.25,"Variação entre 25% a 50%","Variação abaixo de 25%"))))</f>
-        <v>Variação abaixo de 25%</v>
+        <f t="shared" si="2"/>
+        <v>Variação entre 25% a 50%</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L85" si="7">IF(AND(J67="Sim",ABS(I67)&gt;0.2),"Mudança na Regra", "Apenas Variação")</f>
+        <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C68">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D68">
         <v>0.08</v>
       </c>
       <c r="E68">
+        <v>0.59</v>
+      </c>
+      <c r="F68">
+        <v>-0.04</v>
+      </c>
+      <c r="G68">
+        <v>0.94</v>
+      </c>
+      <c r="H68">
+        <v>0.7</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I86" si="4">H68-E68</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" ref="J68:J86" si="5">IF(AND(H68&gt;1,E68&lt;1),"Sim",IF(AND(H68&lt;1,E68&gt;1),"Sim","Não"))</f>
+        <v>Não</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" ref="K68:K86" si="6">IF(ABS(I68)&gt;1,"Variação de Acima de 100%",IF(ABS(I68)&gt;0.75,"Variação de 75% a 100%",IF(ABS(I68)&gt;0.5,"Variação entre 50% a 75%",IF(ABS(I68)&gt;0.25,"Variação entre 25% a 50%","Variação abaixo de 25%"))))</f>
+        <v>Variação abaixo de 25%</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" ref="L68:L86" si="7">IF(AND(J68="Sim",ABS(I68)&gt;0.2),"Mudança na Regra", "Apenas Variação")</f>
+        <v>Apenas Variação</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69">
+        <v>0.01</v>
+      </c>
+      <c r="D69">
+        <v>0.08</v>
+      </c>
+      <c r="E69">
         <v>1.22</v>
       </c>
-      <c r="F68">
+      <c r="F69">
         <v>0</v>
       </c>
-      <c r="G68">
+      <c r="G69">
         <v>1.02</v>
       </c>
-      <c r="H68">
+      <c r="H69">
         <v>1.05</v>
       </c>
-      <c r="I68">
+      <c r="I69">
         <f t="shared" si="4"/>
         <v>-0.16999999999999993</v>
-      </c>
-      <c r="J68" t="str">
-        <f t="shared" si="5"/>
-        <v>Não</v>
-      </c>
-      <c r="K68" t="str">
-        <f t="shared" si="6"/>
-        <v>Variação abaixo de 25%</v>
-      </c>
-      <c r="L68" t="str">
-        <f t="shared" si="7"/>
-        <v>Apenas Variação</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69">
-        <v>0.04</v>
-      </c>
-      <c r="D69">
-        <v>0.06</v>
-      </c>
-      <c r="E69">
-        <v>0.88</v>
-      </c>
-      <c r="F69">
-        <v>-0.01</v>
-      </c>
-      <c r="G69">
-        <v>0.99</v>
-      </c>
-      <c r="H69">
-        <v>0.98</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999978E-2</v>
       </c>
       <c r="J69" t="str">
         <f t="shared" si="5"/>
@@ -3472,32 +6216,32 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C70">
-        <v>0.62</v>
+        <v>0.04</v>
       </c>
       <c r="D70">
-        <v>0.68</v>
+        <v>0.06</v>
       </c>
       <c r="E70">
-        <v>1.01</v>
-      </c>
-      <c r="F70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G70" t="s">
-        <v>36</v>
+        <v>0.88</v>
+      </c>
+      <c r="F70">
+        <v>-0.01</v>
+      </c>
+      <c r="G70">
+        <v>0.99</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="I70">
         <f t="shared" si="4"/>
-        <v>-1.0000000000000009E-2</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="5"/>
@@ -3514,32 +6258,32 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
       </c>
       <c r="C71">
-        <v>0.05</v>
+        <v>0.62</v>
       </c>
       <c r="D71">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="E71">
-        <v>0.88</v>
+        <v>1.01</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <f t="shared" si="4"/>
-        <v>7.999999999999996E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" si="5"/>
@@ -3559,29 +6303,29 @@
         <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C72">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D72">
-        <v>0.18</v>
+        <v>0.59</v>
       </c>
       <c r="E72">
-        <v>1.29</v>
+        <v>0.88</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H72">
-        <v>1.25</v>
+        <v>0.96</v>
       </c>
       <c r="I72">
         <f t="shared" si="4"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>7.999999999999996E-2</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="5"/>
@@ -3601,29 +6345,29 @@
         <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C73">
         <v>0.01</v>
       </c>
       <c r="D73">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="E73">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="F73" t="s">
         <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="I73">
         <f t="shared" si="4"/>
-        <v>-0.24</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" si="5"/>
@@ -3640,32 +6384,32 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="D74">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E74">
-        <v>0.97</v>
+        <v>1.25</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H74">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="I74">
         <f t="shared" si="4"/>
-        <v>1.0000000000000009E-2</v>
+        <v>-0.24</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="5"/>
@@ -3685,7 +6429,7 @@
         <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C75">
         <v>0.12</v>
@@ -3694,7 +6438,7 @@
         <v>0.13</v>
       </c>
       <c r="E75">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F75" t="s">
         <v>43</v>
@@ -3703,11 +6447,11 @@
         <v>44</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="I75">
         <f t="shared" si="4"/>
-        <v>2.0000000000000018E-2</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="5"/>
@@ -3727,13 +6471,13 @@
         <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="D76">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="E76">
         <v>0.98</v>
@@ -3745,15 +6489,15 @@
         <v>44</v>
       </c>
       <c r="H76">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <f t="shared" si="4"/>
-        <v>3.0000000000000027E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="5"/>
-        <v>Sim</v>
+        <v>Não</v>
       </c>
       <c r="K76" t="str">
         <f t="shared" si="6"/>
@@ -3766,116 +6510,116 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D77">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E77">
-        <v>1.17</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
+        <v>0.98</v>
+      </c>
+      <c r="F77" t="s">
+        <v>43</v>
+      </c>
+      <c r="G77" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77">
         <v>1.01</v>
-      </c>
-      <c r="H77">
-        <v>0.84</v>
       </c>
       <c r="I77">
         <f t="shared" si="4"/>
-        <v>-0.32999999999999996</v>
-      </c>
-      <c r="J77" s="3" t="str">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J77" t="str">
         <f t="shared" si="5"/>
         <v>Sim</v>
       </c>
       <c r="K77" t="str">
         <f t="shared" si="6"/>
-        <v>Variação entre 25% a 50%</v>
+        <v>Variação abaixo de 25%</v>
       </c>
       <c r="L77" t="str">
         <f t="shared" si="7"/>
-        <v>Mudança na Regra</v>
+        <v>Apenas Variação</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C78">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D78">
-        <v>0.68</v>
+        <v>0.08</v>
       </c>
       <c r="E78">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="H78">
-        <v>1.03</v>
+        <v>0.84</v>
       </c>
       <c r="I78">
         <f t="shared" si="4"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="J78" t="str">
+        <v>-0.32999999999999996</v>
+      </c>
+      <c r="J78" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K78" t="str">
         <f t="shared" si="6"/>
-        <v>Variação abaixo de 25%</v>
+        <v>Variação entre 25% a 50%</v>
       </c>
       <c r="L78" t="str">
         <f t="shared" si="7"/>
-        <v>Apenas Variação</v>
+        <v>Mudança na Regra</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
         <v>12</v>
       </c>
       <c r="C79">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="D79">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="I79">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="J79" t="str">
         <f t="shared" si="5"/>
@@ -3892,32 +6636,32 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C80">
-        <v>0.01</v>
+        <v>0.64</v>
       </c>
       <c r="D80">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="E80">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>1.1399999999999999</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <f t="shared" si="4"/>
-        <v>-0.14000000000000012</v>
+        <v>0</v>
       </c>
       <c r="J80" t="str">
         <f t="shared" si="5"/>
@@ -3934,32 +6678,32 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="D81">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="E81">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="H81">
-        <v>1.03</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I81">
         <f t="shared" si="4"/>
-        <v>1.0000000000000009E-2</v>
+        <v>-0.14000000000000012</v>
       </c>
       <c r="J81" t="str">
         <f t="shared" si="5"/>
@@ -3979,16 +6723,16 @@
         <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C82">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D82">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E82">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3997,11 +6741,11 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="I82">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="5"/>
@@ -4018,32 +6762,32 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D83">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="E83">
-        <v>0.59</v>
+        <v>0.99</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="I83">
         <f t="shared" si="4"/>
-        <v>7.0000000000000062E-2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" si="5"/>
@@ -4063,29 +6807,29 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E84">
-        <v>1.1200000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>1.01</v>
+        <v>0.94</v>
       </c>
       <c r="H84">
-        <v>1.1000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="I84">
         <f t="shared" si="4"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="J84" t="str">
         <f t="shared" si="5"/>
@@ -4102,32 +6846,32 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E85">
-        <v>0.99</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="H85">
-        <v>0.99</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I85">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="J85" t="str">
         <f t="shared" si="5"/>
@@ -4142,8 +6886,50 @@
         <v>Apenas Variação</v>
       </c>
     </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86">
+        <v>0.06</v>
+      </c>
+      <c r="D86">
+        <v>0.06</v>
+      </c>
+      <c r="E86">
+        <v>0.99</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0.99</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="5"/>
+        <v>Não</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="6"/>
+        <v>Variação abaixo de 25%</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="7"/>
+        <v>Apenas Variação</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:L85">
+  <conditionalFormatting sqref="I2:L86">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/CenarioApenasLifetime.xlsx
+++ b/CenarioApenasLifetime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/026aa1b822791703/Documentos/2025-1/Mestrado/Desenvolvimento Distribuido de Software/Novo Experimento/GraficosParaApresentaçãoDDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{F80346AE-E4AE-954F-AE35-45B165B03222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9D38D2C-F950-8847-8251-97D51054CB14}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{F80346AE-E4AE-954F-AE35-45B165B03222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FBAA568-5EF9-664D-A3A2-41BA45F37A8F}"/>
   <bookViews>
     <workbookView xWindow="-4600" yWindow="-20940" windowWidth="38080" windowHeight="20780" activeTab="1" xr2:uid="{955F98AE-C1F8-0A40-8D83-80322090FE18}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="19" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="57">
   <si>
     <t>Antecendente</t>
   </si>
@@ -212,12 +212,18 @@
   <si>
     <t>Mudança na Regra</t>
   </si>
+  <si>
+    <t>›</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,8 +253,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,210 +308,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <sz val="14"/>
@@ -511,6 +353,148 @@
     <dxf>
       <font>
         <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
       </font>
     </dxf>
     <dxf>
@@ -553,145 +537,8 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <sz val="14"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -709,8 +556,145 @@
       </font>
     </dxf>
     <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
-        <sz val="14"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
       </font>
     </dxf>
     <dxf>
@@ -751,561 +735,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1317,6 +746,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828842</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>443831</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30235822-A042-F77E-657D-74032EEB5D7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5407526" y="401053"/>
+          <a:ext cx="3759200" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>594895</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209884</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>82215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A353A3DD-A028-CDD2-5D94-8C563E241701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5173579" y="3094789"/>
+          <a:ext cx="3759200" cy="2120900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2578,8 +2100,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{096FBF48-DA00-364D-8539-DB3B1EA0E26A}" name="Tabela dinâmica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Variações">
-  <location ref="A17:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{096FBF48-DA00-364D-8539-DB3B1EA0E26A}" name="Tabela dinâmica2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Variações">
+  <location ref="B17:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -2600,12 +2122,21 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
   </pivotFields>
   <rowFields count="2">
@@ -2648,62 +2179,62 @@
     <dataField name="Quantidade de Regras" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="18">
-    <format dxfId="36">
+    <format dxfId="17">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="15">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="13">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="11">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="9">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="7">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="3">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2720,8 +2251,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F39D9A8-8536-5842-9691-753AF58886F8}" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Variações">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F39D9A8-8536-5842-9691-753AF58886F8}" name="Tabela dinâmica1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Variações">
+  <location ref="B3:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -2733,7 +2264,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="5">
         <item x="0"/>
         <item x="3"/>
@@ -2741,6 +2272,15 @@
         <item x="1"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -2752,13 +2292,13 @@
       <x/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
       <x v="2"/>
     </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -2771,62 +2311,62 @@
     <dataField name="Quantidade de Regras" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="18">
-    <format dxfId="82">
+    <format dxfId="35">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="33">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="31">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="29">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="25">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="21">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="19">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3159,158 +2699,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE269E98-AE4E-AE40-BA8F-7C1D64C3E283}">
-  <dimension ref="A3:B28"/>
+  <dimension ref="B3:C26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="190" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="190" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="2:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="11">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C7" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="8" spans="2:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="C21" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="C22" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="8">
+      <c r="C26" s="12">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="8">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632A51A5-5BAF-9847-87CB-0AE61E88FC22}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3318,3612 +2858,3617 @@
     <col min="1" max="1" width="29.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>0.6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>0.89</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <v>1.9</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="7">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <f>H2-E2</f>
         <v>-1.9999999999999796E-2</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="2" t="str">
         <f>IF(AND(H2&gt;1,E2&lt;1),"Sim",IF(AND(H2&lt;1,E2&gt;1),"Sim","Não"))</f>
         <v>Não</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2" s="2" t="str">
         <f>IF(ABS(I2)&gt;1,"Variação de Acima de 100%",IF(ABS(I2)&gt;0.75,"Variação de 75% a 100%",IF(ABS(I2)&gt;0.5,"Variação entre 50% a 75%",IF(ABS(I2)&gt;0.25,"Variação entre 25% a 50%","Variação abaixo de 25%"))))</f>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="2" t="str">
         <f>IF(AND(J2="Sim",ABS(I2)&gt;0.2),"Mudança na Regra", "Apenas Variação")</f>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>0.1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>0.73</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>0.92</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>-0.01</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <v>0.77</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="7">
         <v>1.04</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I67" si="0">H3-E3</f>
         <v>0.12</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="8" t="str">
         <f t="shared" ref="J3:J67" si="1">IF(AND(H3&gt;1,E3&lt;1),"Sim",IF(AND(H3&lt;1,E3&gt;1),"Sim","Não"))</f>
         <v>Sim</v>
       </c>
-      <c r="K3" t="str">
+      <c r="K3" s="2" t="str">
         <f t="shared" ref="K3:K67" si="2">IF(ABS(I3)&gt;1,"Variação de Acima de 100%",IF(ABS(I3)&gt;0.75,"Variação de 75% a 100%",IF(ABS(I3)&gt;0.5,"Variação entre 50% a 75%",IF(ABS(I3)&gt;0.25,"Variação entre 25% a 50%","Variação abaixo de 25%"))))</f>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L3" s="2" t="str">
         <f t="shared" ref="L3:L67" si="3">IF(AND(J3="Sim",ABS(I3)&gt;0.2),"Mudança na Regra", "Apenas Variação")</f>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>0.04</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>0.66</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>0.83</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>-0.01</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="7">
         <v>0.61</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="7">
         <v>0.96</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K4" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>0.08</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>2.74</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>0.05</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <v>1.85</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <v>2.14</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>-0.60000000000000009</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K5" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 50% a 75%</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L5" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>0.06</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>0.43</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>0.54</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>-0.05</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>0.36</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="7">
         <v>0.66</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L6" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>0.02</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>0.34</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>1.64</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>0.01</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>1.2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="7">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>-0.51</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 50% a 75%</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L7" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>0.04</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>0.27</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>1.3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <v>0.01</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="7">
         <v>0.87</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>-0.43000000000000005</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sim</v>
       </c>
-      <c r="K8" t="str">
+      <c r="K8" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L8" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Mudança na Regra</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>0.11</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>0.53</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="7">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="7">
         <v>0.89</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="7">
         <v>0.65</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>0.76</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="7">
         <v>1.4</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="7">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" t="str">
+      <c r="J10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>0.1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>0.5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>0.75</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="7">
         <v>-0.03</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <v>0.67</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="7">
         <v>0.75</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" t="str">
+      <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>0.03</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>0.39</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>2.84</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>0.02</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="7">
         <v>1.4</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="7">
         <v>1.92</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>-0.91999999999999993</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação de 75% a 100%</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L12" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>0.02</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>0.25</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>0.37</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="7">
         <v>-0.03</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="7">
         <v>0.44</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="7">
         <v>0.51</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="J13" t="str">
+      <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
         <v>0.02</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="7">
         <v>0.21</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
         <v>1.62</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="7">
         <v>0.01</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="7">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>-0.4800000000000002</v>
       </c>
-      <c r="J14" t="str">
+      <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L14" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>0.04</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="7">
         <v>0.21</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="7">
         <v>1.6</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="7">
         <v>0.02</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="7">
         <v>1.24</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>-0.3600000000000001</v>
       </c>
-      <c r="J15" t="str">
+      <c r="J15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L15" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>0.04</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="7">
         <v>0.18</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="7">
         <v>1.36</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="7">
         <v>0.01</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="7">
         <v>1.06</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="7">
         <v>1.28</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>-8.0000000000000071E-2</v>
       </c>
-      <c r="J16" t="str">
+      <c r="J16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L16" t="str">
+      <c r="L16" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="7">
         <v>0.01</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <v>0.16</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <v>2.41</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="7">
         <v>0.01</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="7">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="7">
         <v>1.54</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>-0.87000000000000011</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação de 75% a 100%</v>
       </c>
-      <c r="L17" t="str">
+      <c r="L17" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="7">
         <v>0.02</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="7">
         <v>0.1</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="7">
         <v>1.59</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="7">
         <v>0.01</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="7">
         <v>1.04</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="7">
         <v>1.29</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="J18" t="str">
+      <c r="J18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L18" t="str">
+      <c r="L18" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="P18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <v>0.1</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="7">
         <v>0.76</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="7">
         <v>-0.02</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="7">
         <v>0.97</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="7">
         <v>0.91</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="J19" t="str">
+      <c r="J19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K19" t="str">
+      <c r="K19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L19" t="str">
+      <c r="L19" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="7">
         <v>0.09</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="7">
         <v>0.69</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="7">
         <v>-0.03</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="7">
         <v>0.95</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="7">
         <v>0.8</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="J20" t="str">
+      <c r="J20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K20" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L20" t="str">
+      <c r="L20" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="7">
         <v>0.03</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="7">
         <v>0.04</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="7">
         <v>0.68</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="7">
         <v>-0.02</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="7">
         <v>0.98</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="7">
         <v>0.84</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="J21" t="str">
+      <c r="J21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K21" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L21" t="str">
+      <c r="L21" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="7">
         <v>0.47</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="7">
         <v>0.83</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="7">
         <v>1.25</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="7">
         <v>0.09</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="7">
         <v>1.98</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="7">
         <v>1.21</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="J22" t="str">
+      <c r="J22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K22" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L22" t="str">
+      <c r="L22" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="7">
         <v>0.15</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="7">
         <v>0.51</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="7">
         <v>0.77</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="7">
         <v>-0.04</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="7">
         <v>0.68</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="7">
         <v>0.87</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="J23" t="str">
+      <c r="J23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K23" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L23" t="str">
+      <c r="L23" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="7">
         <v>0.05</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="7">
         <v>0.34</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="7">
         <v>2.4900000000000002</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="7">
         <v>0.03</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="7">
         <v>1.3</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="7">
         <v>1.54</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>-0.95000000000000018</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K24" t="str">
+      <c r="K24" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação de 75% a 100%</v>
       </c>
-      <c r="L24" t="str">
+      <c r="L24" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="7">
         <v>0.05</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="7">
         <v>0.34</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="7">
         <v>0.5</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="7">
         <v>-0.05</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="7">
         <v>0.5</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="7">
         <v>0.68</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>0.18000000000000005</v>
       </c>
-      <c r="J25" t="str">
+      <c r="J25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K25" t="str">
+      <c r="K25" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L25" t="str">
+      <c r="L25" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="7">
         <v>0.06</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="7">
         <v>0.2</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="7">
         <v>1.46</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="7">
         <v>0.02</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="7">
         <v>1.08</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="7">
         <v>1.19</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>-0.27</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J26" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K26" t="str">
+      <c r="K26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L26" t="str">
+      <c r="L26" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="7">
         <v>0.03</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="7">
         <v>0.2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="7">
         <v>1.5</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="7">
         <v>0.01</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="7">
         <v>1.08</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="7">
         <v>1.17</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>-0.33000000000000007</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K27" t="str">
+      <c r="K27" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L27" t="str">
+      <c r="L27" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="7">
         <v>0.05</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="7">
         <v>0.19</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="7">
         <v>1.45</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="7">
         <v>0.02</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="7">
         <v>1.07</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>-0.34999999999999987</v>
       </c>
-      <c r="J28" t="str">
+      <c r="J28" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K28" t="str">
+      <c r="K28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L28" t="str">
+      <c r="L28" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="7">
         <v>0.02</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="7">
         <v>0.13</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="7">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="7">
         <v>0.01</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="7">
         <v>1.07</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="7">
         <v>1.36</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>-0.64999999999999969</v>
       </c>
-      <c r="J29" t="str">
+      <c r="J29" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K29" t="str">
+      <c r="K29" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 50% a 75%</v>
       </c>
-      <c r="L29" t="str">
+      <c r="L29" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="7">
         <v>0.03</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="7">
         <v>0.1</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="7">
         <v>1.51</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="7">
         <v>0.01</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="7">
         <v>1.04</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="7">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>-0.38000000000000012</v>
       </c>
-      <c r="J30" t="str">
+      <c r="J30" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K30" t="str">
+      <c r="K30" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L30" t="str">
+      <c r="L30" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="7">
         <v>0.05</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="7">
         <v>0.08</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="7">
         <v>0.64</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="7">
         <v>-0.03</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="7">
         <v>0.95</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="7">
         <v>0.87</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="J31" t="str">
+      <c r="J31" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K31" t="str">
+      <c r="K31" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L31" t="str">
+      <c r="L31" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="7">
         <v>0.03</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="7">
         <v>0.05</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="7">
         <v>0.38</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="7">
         <v>-0.05</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="7">
         <v>0.91</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="7">
         <v>0.67</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>0.29000000000000004</v>
       </c>
-      <c r="J32" t="str">
+      <c r="J32" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K32" t="str">
+      <c r="K32" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L32" t="str">
+      <c r="L32" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="7">
         <v>0.02</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="7">
         <v>0.03</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="7">
         <v>0.48</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="7">
         <v>-0.02</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="7">
         <v>0.97</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="7">
         <v>0.78</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J33" t="str">
+      <c r="J33" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K33" t="str">
+      <c r="K33" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L33" t="str">
+      <c r="L33" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="7">
         <v>0.02</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="7">
         <v>0.85</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="7">
         <v>1.27</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="7">
         <v>2.15</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="7">
         <v>1.24</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <f t="shared" si="0"/>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="J34" t="str">
+      <c r="J34" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K34" t="str">
+      <c r="K34" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L34" t="str">
+      <c r="L34" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="7">
         <v>0.49</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="7">
         <v>0.82</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="7">
         <v>1.23</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="7">
         <v>0.09</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="7">
         <v>1.84</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="7">
         <v>1.24</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="J35" t="str">
+      <c r="J35" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K35" t="str">
+      <c r="K35" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L35" t="str">
+      <c r="L35" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="7">
         <v>0.16</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="7">
         <v>0.42</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="7">
         <v>0.63</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="7">
         <v>-0.09</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="7">
         <v>0.72</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <f t="shared" si="0"/>
         <v>8.9999999999999969E-2</v>
       </c>
-      <c r="J36" t="str">
+      <c r="J36" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K36" t="str">
+      <c r="K36" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L36" t="str">
+      <c r="L36" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="7">
         <v>0.1</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="7">
         <v>0.27</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="7">
         <v>1.98</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="7">
         <v>0.05</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="7">
         <v>1.18</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="7">
         <v>1.43</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <f t="shared" si="0"/>
         <v>-0.55000000000000004</v>
       </c>
-      <c r="J37" t="str">
+      <c r="J37" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K37" t="str">
+      <c r="K37" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 50% a 75%</v>
       </c>
-      <c r="L37" t="str">
+      <c r="L37" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="7">
         <v>0.2</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="7">
         <v>1.5</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="7">
         <v>0.02</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="7">
         <v>1.08</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="7">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <f t="shared" si="0"/>
         <v>-0.34000000000000008</v>
       </c>
-      <c r="J38" t="str">
+      <c r="J38" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K38" t="str">
+      <c r="K38" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L38" t="str">
+      <c r="L38" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="7">
         <v>0.04</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="7">
         <v>0.11</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="7">
         <v>1.77</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="7">
         <v>0.02</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="7">
         <v>1.06</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="7">
         <v>1.31</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <f t="shared" si="0"/>
         <v>-0.45999999999999996</v>
       </c>
-      <c r="J39" t="str">
+      <c r="J39" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K39" t="str">
+      <c r="K39" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L39" t="str">
+      <c r="L39" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="7">
         <v>0.05</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="7">
         <v>0.09</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="7">
         <v>0.7</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="7">
         <v>-0.02</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="7">
         <v>0.96</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="7">
         <v>0.86</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <f t="shared" si="0"/>
         <v>0.16000000000000003</v>
       </c>
-      <c r="J40" t="str">
+      <c r="J40" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K40" t="str">
+      <c r="K40" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L40" t="str">
+      <c r="L40" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="7">
         <v>0.03</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="7">
         <v>0.05</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="7">
         <v>0.4</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="7">
         <v>-0.05</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="7">
         <v>0.91</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="7">
         <v>0.61</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <f t="shared" si="0"/>
         <v>0.20999999999999996</v>
       </c>
-      <c r="J41" t="str">
+      <c r="J41" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K41" t="str">
+      <c r="K41" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L41" t="str">
+      <c r="L41" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="7">
         <v>0.02</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="7">
         <v>0.03</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="7">
         <v>0.53</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="7">
         <v>-0.02</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="7">
         <v>0.97</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="7">
         <v>0.73</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <f t="shared" si="0"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="J42" t="str">
+      <c r="J42" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K42" t="str">
+      <c r="K42" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L42" t="str">
+      <c r="L42" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="7">
         <v>0.59</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="7">
         <v>0.73</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="7">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="7">
         <v>0.05</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="7">
         <v>1.22</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="7">
         <v>1.07</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <f t="shared" si="0"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="J43" t="str">
+      <c r="J43" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K43" t="str">
+      <c r="K43" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L43" t="str">
+      <c r="L43" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="7">
         <v>0.08</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="7">
         <v>0.42</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="7">
         <v>0.63</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="7">
         <v>-0.05</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="7">
         <v>0.76</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-      <c r="J44" t="str">
+      <c r="J44" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K44" t="str">
+      <c r="K44" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L44" t="str">
+      <c r="L44" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="7">
         <v>0.06</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="7">
         <v>0.32</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="7">
         <v>2.37</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="7">
         <v>0.04</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="7">
         <v>1.27</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="7">
         <v>1.85</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <f t="shared" si="0"/>
         <v>-0.52</v>
       </c>
-      <c r="J45" t="str">
+      <c r="J45" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K45" t="str">
+      <c r="K45" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 50% a 75%</v>
       </c>
-      <c r="L45" t="str">
+      <c r="L45" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="7">
         <v>0.03</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="7">
         <v>0.16</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="7">
         <v>1.26</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="7">
         <v>0.01</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="7">
         <v>1.04</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="7">
         <v>0.87</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <f t="shared" si="0"/>
         <v>-0.39</v>
       </c>
-      <c r="J46" s="2" t="str">
+      <c r="J46" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sim</v>
       </c>
-      <c r="K46" t="str">
+      <c r="K46" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L46" t="str">
+      <c r="L46" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Mudança na Regra</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="7">
         <v>0.1</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="7">
         <v>0.12</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="7">
         <v>0.94</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="7">
         <v>-0.01</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="7">
         <v>0.99</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="7">
         <v>1.03</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <f t="shared" si="0"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="J47" s="2" t="str">
+      <c r="J47" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sim</v>
       </c>
-      <c r="K47" t="str">
+      <c r="K47" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L47" t="str">
+      <c r="L47" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="7">
         <v>0.02</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="7">
         <v>0.09</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="7">
         <v>1.43</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="7">
         <v>0.01</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="7">
         <v>1.03</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="7">
         <v>1.05</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <f t="shared" si="0"/>
         <v>-0.37999999999999989</v>
       </c>
-      <c r="J48" t="str">
+      <c r="J48" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K48" t="str">
+      <c r="K48" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L48" t="str">
+      <c r="L48" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="7">
         <v>0.09</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="7">
         <v>0.67</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="7">
         <v>-0.04</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="7">
         <v>0.95</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="7">
         <v>0.77</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="2">
         <f t="shared" si="0"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="J49" t="str">
+      <c r="J49" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K49" t="str">
+      <c r="K49" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L49" t="str">
+      <c r="L49" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="7">
         <v>0.05</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="7">
         <v>0.06</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="7">
         <v>0.9</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="7">
         <v>-0.01</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="7">
         <v>0.99</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="7">
         <v>0.98</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <f t="shared" si="0"/>
         <v>7.999999999999996E-2</v>
       </c>
-      <c r="J50" t="str">
+      <c r="J50" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K50" t="str">
+      <c r="K50" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L50" t="str">
+      <c r="L50" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="7">
         <v>0.65</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="7">
         <v>0.69</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="7">
         <v>1.04</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="7">
         <v>0.02</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="7">
         <v>1.08</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="7">
         <v>1.03</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <f t="shared" si="0"/>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="J51" t="str">
+      <c r="J51" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K51" t="str">
+      <c r="K51" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L51" t="str">
+      <c r="L51" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="7">
         <v>0.02</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="7">
         <v>0.41</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="7">
         <v>3.01</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="7">
         <v>0.02</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="7">
         <v>1.46</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="7">
         <v>2.1800000000000002</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <f t="shared" si="0"/>
         <v>-0.82999999999999963</v>
       </c>
-      <c r="J52" t="str">
+      <c r="J52" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K52" t="str">
+      <c r="K52" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação de 75% a 100%</v>
       </c>
-      <c r="L52" t="str">
+      <c r="L52" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="7">
         <v>0.01</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="7">
         <v>0.25</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="7">
         <v>0.38</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="7">
         <v>-0.02</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="7">
         <v>0.44</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="2">
         <f t="shared" si="0"/>
         <v>0.18000000000000005</v>
       </c>
-      <c r="J53" t="str">
+      <c r="J53" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K53" t="str">
+      <c r="K53" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L53" t="str">
+      <c r="L53" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="7">
         <v>0.01</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="7">
         <v>0.2</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="7">
         <v>1.56</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="7">
         <v>0</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="7">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="7">
         <v>0.97</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="2">
         <f t="shared" si="0"/>
         <v>-0.59000000000000008</v>
       </c>
-      <c r="J54" s="2" t="str">
+      <c r="J54" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Sim</v>
       </c>
-      <c r="K54" t="str">
+      <c r="K54" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 50% a 75%</v>
       </c>
-      <c r="L54" t="str">
+      <c r="L54" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Mudança na Regra</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>0.01</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>0.13</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>2.06</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <v>0</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>1.08</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="7">
         <v>1.26</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="2">
         <f t="shared" si="0"/>
         <v>-0.8</v>
       </c>
-      <c r="J55" s="2" t="str">
+      <c r="J55" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K55" t="str">
+      <c r="K55" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação de 75% a 100%</v>
       </c>
-      <c r="L55" t="str">
+      <c r="L55" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="7">
         <v>0.12</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="7">
         <v>0.13</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="7">
         <v>0.97</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="7">
         <v>0</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="7">
         <v>0.99</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2">
         <v>1</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="2">
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="J56" t="str">
+      <c r="J56" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K56" t="str">
+      <c r="K56" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L56" t="str">
+      <c r="L56" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="7">
         <v>0.11</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="7">
         <v>0.12</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="7">
         <v>0.88</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="7">
         <v>-0.02</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="7">
         <v>0.98</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="7">
         <v>0.93</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="2">
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="J57" t="str">
+      <c r="J57" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K57" t="str">
+      <c r="K57" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L57" t="str">
+      <c r="L57" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="7">
         <v>0.06</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="7">
         <v>0.06</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="7">
         <v>0.94</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="7">
         <v>0</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="7">
         <v>1</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="7">
         <v>0.98</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="2">
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="J58" t="str">
+      <c r="J58" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K58" t="str">
+      <c r="K58" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L58" t="str">
+      <c r="L58" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>0.53</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>0.74</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <v>0.05</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <v>1.27</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="2">
         <v>1.08</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="2">
         <f t="shared" si="0"/>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="J59" t="str">
+      <c r="J59" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K59" t="str">
+      <c r="K59" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L59" t="str">
+      <c r="L59" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>0.09</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>0.53</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>0.8</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <v>-0.02</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <v>0.71</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="2">
         <v>0.86</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="2">
         <f t="shared" si="0"/>
         <v>5.9999999999999942E-2</v>
       </c>
-      <c r="J60" t="str">
+      <c r="J60" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K60" t="str">
+      <c r="K60" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L60" t="str">
+      <c r="L60" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>0.05</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>0.44</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>0.66</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>-0.03</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>0.59</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="2">
         <v>0.76</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <f t="shared" si="0"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="J61" t="str">
+      <c r="J61" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K61" t="str">
+      <c r="K61" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L61" t="str">
+      <c r="L61" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>0.04</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>0.31</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>2.27</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <v>0.02</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="2">
         <v>1.25</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="2">
         <v>1.85</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="2">
         <f t="shared" si="0"/>
         <v>-0.41999999999999993</v>
       </c>
-      <c r="J62" t="str">
+      <c r="J62" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K62" t="str">
+      <c r="K62" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L62" t="str">
+      <c r="L62" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>0.04</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <v>0.25</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>1.83</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <v>0.02</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="2">
         <v>1.5</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="2">
         <f t="shared" si="0"/>
         <v>-0.33000000000000007</v>
       </c>
-      <c r="J63" t="str">
+      <c r="J63" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K63" t="str">
+      <c r="K63" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L63" t="str">
+      <c r="L63" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>0.02</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>0.16</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <v>1.23</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="2">
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="2">
         <v>1.04</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="2">
         <v>0.87</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="2">
         <f t="shared" si="0"/>
         <v>-0.36</v>
       </c>
-      <c r="J64" s="3" t="str">
+      <c r="J64" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Sim</v>
       </c>
-      <c r="K64" t="str">
+      <c r="K64" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L64" t="str">
+      <c r="L64" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Mudança na Regra</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>0.02</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>1.07</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
         <v>0</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="2">
         <v>1.01</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="2">
         <v>0.9</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="2">
         <f t="shared" si="0"/>
         <v>-0.17000000000000004</v>
       </c>
-      <c r="J65" t="str">
+      <c r="J65" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Sim</v>
       </c>
-      <c r="K65" t="str">
+      <c r="K65" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L65" t="str">
+      <c r="L65" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>0.09</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>0.12</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <v>0.94</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
         <v>-0.01</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <v>0.99</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="2">
         <v>1.06</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <f t="shared" si="0"/>
         <v>0.12000000000000011</v>
       </c>
-      <c r="J66" t="str">
+      <c r="J66" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Sim</v>
       </c>
-      <c r="K66" t="str">
+      <c r="K66" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L66" t="str">
+      <c r="L66" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>0.01</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <v>0.09</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <v>1.37</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="2">
         <v>0</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="2">
         <v>1.03</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="2">
         <v>1.05</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="2">
         <f t="shared" si="0"/>
         <v>-0.32000000000000006</v>
       </c>
-      <c r="J67" t="str">
+      <c r="J67" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
-      <c r="K67" t="str">
+      <c r="K67" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L67" t="str">
+      <c r="L67" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>0.06</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>0.08</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>0.59</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
         <v>-0.04</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="2">
         <v>0.94</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="2">
         <v>0.7</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="2">
         <f t="shared" ref="I68:I86" si="4">H68-E68</f>
         <v>0.10999999999999999</v>
       </c>
-      <c r="J68" t="str">
+      <c r="J68" s="2" t="str">
         <f t="shared" ref="J68:J86" si="5">IF(AND(H68&gt;1,E68&lt;1),"Sim",IF(AND(H68&lt;1,E68&gt;1),"Sim","Não"))</f>
         <v>Não</v>
       </c>
-      <c r="K68" t="str">
+      <c r="K68" s="2" t="str">
         <f t="shared" ref="K68:K86" si="6">IF(ABS(I68)&gt;1,"Variação de Acima de 100%",IF(ABS(I68)&gt;0.75,"Variação de 75% a 100%",IF(ABS(I68)&gt;0.5,"Variação entre 50% a 75%",IF(ABS(I68)&gt;0.25,"Variação entre 25% a 50%","Variação abaixo de 25%"))))</f>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L68" t="str">
+      <c r="L68" s="2" t="str">
         <f t="shared" ref="L68:L86" si="7">IF(AND(J68="Sim",ABS(I68)&gt;0.2),"Mudança na Regra", "Apenas Variação")</f>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>0.01</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <v>0.08</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <v>1.22</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
         <v>0</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="2">
         <v>1.02</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="2">
         <v>1.05</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <f t="shared" si="4"/>
         <v>-0.16999999999999993</v>
       </c>
-      <c r="J69" t="str">
+      <c r="J69" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K69" t="str">
+      <c r="K69" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L69" t="str">
+      <c r="L69" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>0.04</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>0.06</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <v>0.88</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
         <v>-0.01</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="2">
         <v>0.99</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="2">
         <v>0.98</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="2">
         <f t="shared" si="4"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="J70" t="str">
+      <c r="J70" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K70" t="str">
+      <c r="K70" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L70" t="str">
+      <c r="L70" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <v>0.62</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <v>0.68</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>1.01</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="2">
         <v>1</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="2">
         <f t="shared" si="4"/>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="J71" t="str">
+      <c r="J71" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K71" t="str">
+      <c r="K71" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L71" t="str">
+      <c r="L71" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
         <v>0.05</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="2">
         <v>0.59</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <v>0.88</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="2">
         <v>0.96</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="2">
         <f t="shared" si="4"/>
         <v>7.999999999999996E-2</v>
       </c>
-      <c r="J72" t="str">
+      <c r="J72" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K72" t="str">
+      <c r="K72" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L72" t="str">
+      <c r="L72" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <v>0.01</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="2">
         <v>0.18</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <v>1.29</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="2">
         <v>1.25</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="2">
         <f t="shared" si="4"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="J73" t="str">
+      <c r="J73" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K73" t="str">
+      <c r="K73" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L73" t="str">
+      <c r="L73" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <v>0.01</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="2">
         <v>0.16</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <v>1.25</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="2">
         <v>1.01</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="2">
         <f t="shared" si="4"/>
         <v>-0.24</v>
       </c>
-      <c r="J74" t="str">
+      <c r="J74" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K74" t="str">
+      <c r="K74" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L74" t="str">
+      <c r="L74" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <v>0.12</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <v>0.13</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>0.97</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="2">
         <v>0.98</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="2">
         <f t="shared" si="4"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="J75" t="str">
+      <c r="J75" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K75" t="str">
+      <c r="K75" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L75" t="str">
+      <c r="L75" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>0.12</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <v>0.13</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>0.98</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="2">
         <v>1</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="2">
         <f t="shared" si="4"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="J76" t="str">
+      <c r="J76" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K76" t="str">
+      <c r="K76" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L76" t="str">
+      <c r="L76" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
         <v>0.06</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <v>0.06</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <v>0.98</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="2">
         <v>1.01</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="2">
         <f t="shared" si="4"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="J77" t="str">
+      <c r="J77" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Sim</v>
       </c>
-      <c r="K77" t="str">
+      <c r="K77" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L77" t="str">
+      <c r="L77" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <v>0.01</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2">
         <v>0.08</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2">
         <v>1.17</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="2">
         <v>0</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="2">
         <v>1.01</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="2">
         <v>0.84</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="2">
         <f t="shared" si="4"/>
         <v>-0.32999999999999996</v>
       </c>
-      <c r="J78" s="3" t="str">
+      <c r="J78" s="9" t="str">
         <f t="shared" si="5"/>
         <v>Sim</v>
       </c>
-      <c r="K78" t="str">
+      <c r="K78" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação entre 25% a 50%</v>
       </c>
-      <c r="L78" t="str">
+      <c r="L78" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Mudança na Regra</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <v>0.03</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="2">
         <v>0.68</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <v>1.02</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <v>0</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="2">
         <v>1.03</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="2">
         <v>1.03</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="2">
         <f t="shared" si="4"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="J79" t="str">
+      <c r="J79" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K79" t="str">
+      <c r="K79" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L79" t="str">
+      <c r="L79" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <v>0.64</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="2">
         <v>0.67</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <v>1</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="2">
         <v>0</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="2">
         <v>1</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="2">
         <v>1</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J80" t="str">
+      <c r="J80" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K80" t="str">
+      <c r="K80" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L80" t="str">
+      <c r="L80" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <v>0.01</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2">
         <v>0.17</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <v>1.28</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="2">
         <v>0</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="2">
         <v>1.04</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="2">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="2">
         <f t="shared" si="4"/>
         <v>-0.14000000000000012</v>
       </c>
-      <c r="J81" t="str">
+      <c r="J81" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K81" t="str">
+      <c r="K81" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L81" t="str">
+      <c r="L81" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>0.13</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <v>1.02</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="2">
         <v>0</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="2">
         <v>1</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="2">
         <v>1.03</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="2">
         <f t="shared" si="4"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="J82" t="str">
+      <c r="J82" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K82" t="str">
+      <c r="K82" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L82" t="str">
+      <c r="L82" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <v>0.12</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="2">
         <v>0.13</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2">
         <v>0.99</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="2">
         <v>0</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="2">
         <v>1</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="2">
         <v>0.99</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J83" t="str">
+      <c r="J83" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K83" t="str">
+      <c r="K83" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L83" t="str">
+      <c r="L83" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
         <v>0</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="2">
         <v>0.08</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="2">
         <v>0.59</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="2">
         <v>0</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="2">
         <v>0.94</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="2">
         <v>0.66</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="2">
         <f t="shared" si="4"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="J84" t="str">
+      <c r="J84" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K84" t="str">
+      <c r="K84" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L84" t="str">
+      <c r="L84" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <v>0</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="2">
         <v>0</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="2">
         <v>1.01</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="2">
         <f t="shared" si="4"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="J85" t="str">
+      <c r="J85" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K85" t="str">
+      <c r="K85" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L85" t="str">
+      <c r="L85" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>0.06</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="2">
         <v>0.06</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="2">
         <v>0.99</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
         <v>0</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="2">
         <v>1</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="2">
         <v>0.99</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J86" t="str">
+      <c r="J86" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Não</v>
       </c>
-      <c r="K86" t="str">
+      <c r="K86" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Variação abaixo de 25%</v>
       </c>
-      <c r="L86" t="str">
+      <c r="L86" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Apenas Variação</v>
       </c>
